--- a/tabelas/processos_siout_2021-01-18.xlsx
+++ b/tabelas/processos_siout_2021-01-18.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +514,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Em análise</t>
+          <t>Aguardando análise</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>17/12/2020</t>
+          <t>17/01/2021</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -818,37 +818,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020/020.408</t>
+          <t>2020/020.535</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bugres</t>
+          <t>Eleutério</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Companhia Estadual de Geração e Transmissão de Energia Elétrica</t>
+          <t>ENTRE RIOS GERACAO DE ENERGIA LTDA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>São Francisco de Paula</t>
+          <t>Barracão</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Aguardando alterações de dados inconsistentes</t>
+          <t>Aguardando análise</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>29/10/2020</t>
+          <t>18/12/2020</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2020/020.405</t>
+          <t>2020/020.408</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2020/019.897</t>
+          <t>2020/020.405</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -922,32 +922,32 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Barracão</t>
+          <t>Bugres</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Enebras Projetos de Usinas Hidrelétricas Ltda.</t>
+          <t>Companhia Estadual de Geração e Transmissão de Energia Elétrica</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Barracão</t>
+          <t>São Francisco de Paula</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Aguardando alterações de dados inconsistentes</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>13/11/2020</t>
+          <t>29/10/2020</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>R-001.886/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -959,42 +959,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2020/019.563</t>
+          <t>2020/019.897</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>São Sepé</t>
+          <t>Barracão</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ENERBIO PARTICIPAÇÕES LTDA.</t>
+          <t>Enebras Projetos de Usinas Hidrelétricas Ltda.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>São Sepé</t>
+          <t>Barracão</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Aguardando alterações de dados inconsistentes</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>13/11/2020</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R-001.886/2020</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2020/018.439</t>
+          <t>2020/019.563</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1016,17 +1016,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pontes Filho</t>
+          <t>São Sepé</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>HT GERAÇÃO DE ENERGIA ELÉTRICA LTDA</t>
+          <t>ENERBIO PARTICIPAÇÕES LTDA.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Teutônia</t>
+          <t>São Sepé</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>26/10/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1053,37 +1053,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2020/016.868</t>
+          <t>2020/018.439</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lajeado do Meio</t>
+          <t>Pontes Filho</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>INHACORA GERADORA DE ENERGIA ELETRICA LTDA.</t>
+          <t>HT GERAÇÃO DE ENERGIA ELÉTRICA LTDA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Alegria</t>
+          <t>Teutônia</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Em análise</t>
+          <t>Aguardando alterações de dados inconsistentes</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>07/01/2021</t>
+          <t>26/10/2020</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1100,27 +1100,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2020/015.305</t>
+          <t>2020/016.868</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Coopermil</t>
+          <t>Lajeado do Meio</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>COOPERATIVA MISTA SÃO LUIZ LTDA</t>
+          <t>INHACORA GERADORA DE ENERGIA ELETRICA LTDA.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Guarani das Missões</t>
+          <t>Alegria</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11/12/2020</t>
+          <t>07/01/2021</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2020/014.974</t>
+          <t>2020/015.305</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1157,32 +1157,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Santo Anjo</t>
+          <t>Coopermil</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CGH SANTO ANJO GERAÇÃO DE ENERGIA S.A</t>
+          <t>COOPERATIVA MISTA SÃO LUIZ LTDA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Caxias do Sul</t>
+          <t>Guarani das Missões</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Aguardando análise</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>14/12/2020</t>
+          <t>11/12/2020</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>O-001.978/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2020/013.600</t>
+          <t>2020/014.974</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1204,17 +1204,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Passo do Buraco</t>
+          <t>Santo Anjo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Z-4 Geração de Energia Elétrica</t>
+          <t>CGH SANTO ANJO GERAÇÃO DE ENERGIA S.A</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vacaria</t>
+          <t>Caxias do Sul</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1224,12 +1224,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>18/08/2020</t>
+          <t>14/12/2020</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>R-001.624/2020</t>
+          <t>O-001.978/2020</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2020/013.471</t>
+          <t>2020/013.600</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1251,32 +1251,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Augusto Pestana</t>
+          <t>Passo do Buraco</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cooperativa de Geração de Energia e Desenvolvimento Social LTDA</t>
+          <t>Z-4 Geração de Energia Elétrica</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Augusto Pestana</t>
+          <t>Vacaria</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Aguardando análise</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>26/08/2020</t>
+          <t>18/08/2020</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R-001.624/2020</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2020/013.091</t>
+          <t>2020/013.471</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1298,17 +1298,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Augusto Pestana</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>RIO DO FRADE GERAÇÃO DE ENERGIA LTDA</t>
+          <t>Cooperativa de Geração de Energia e Desenvolvimento Social LTDA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Esmeralda</t>
+          <t>Augusto Pestana</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>17/12/2020</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1335,42 +1335,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2020/012.821</t>
+          <t>2020/013.091</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dalsasso</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>VALE DO TURVO HIDRELÉTRICA LTDA</t>
+          <t>RIO DO FRADE GERAÇÃO DE ENERGIA LTDA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ipê</t>
+          <t>Esmeralda</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Aguardando alterações de dados inconsistentes</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>27/09/2020</t>
+          <t>17/12/2020</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>R-001.740/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2020/012.816</t>
+          <t>2020/012.821</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Foz do Segredinho</t>
+          <t>Dalsasso</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1412,12 +1412,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>11/09/2020</t>
+          <t>27/09/2020</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>R-001.692/2020</t>
+          <t>R-001.740/2020</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2020/012.793</t>
+          <t>2020/012.816</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Linha Tafona</t>
+          <t>Foz do Segredinho</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>R-001.693/2020</t>
+          <t>R-001.692/2020</t>
         </is>
       </c>
     </row>
@@ -1476,42 +1476,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2020/012.601</t>
+          <t>2020/012.793</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Fundão</t>
+          <t>Linha Tafona</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Fernando Isoton</t>
+          <t>VALE DO TURVO HIDRELÉTRICA LTDA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Quevedos</t>
+          <t>Ipê</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Aguardando alterações de dados inconsistentes</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>12/11/2020</t>
+          <t>11/09/2020</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R-001.693/2020</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2020/012.232</t>
+          <t>2020/012.601</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1533,32 +1533,32 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Limeira</t>
+          <t>Fundão</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>VALE DO TURVO HIDRELÉTRICA LTDA</t>
+          <t>Fernando Isoton</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>André da Rocha</t>
+          <t>Quevedos</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Aguardando alterações de dados inconsistentes</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>22/07/2020</t>
+          <t>12/11/2020</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>R-001.677/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2020/011.908</t>
+          <t>2020/012.232</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1580,32 +1580,32 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ligeirinho</t>
+          <t>Limeira</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ESB ENGENHARIA LTDA</t>
+          <t>VALE DO TURVO HIDRELÉTRICA LTDA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sananduva</t>
+          <t>André da Rocha</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>10/11/2020</t>
+          <t>22/07/2020</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R-001.677/2020</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2020/011.687</t>
+          <t>2020/011.908</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1627,32 +1627,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Arroio da Reserva</t>
+          <t>Ligeirinho</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SAULO SALLES BEVILACQUA NETO</t>
+          <t>ESB ENGENHARIA LTDA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Pinhal Grande</t>
+          <t>Sananduva</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>10/11/2020</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>R-001.607/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2020/011.305</t>
+          <t>2020/011.687</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1674,17 +1674,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>São Caetano do Moinho</t>
+          <t>Arroio da Reserva</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>DELFES ENGENHARIA LTDA</t>
+          <t>SAULO SALLES BEVILACQUA NETO</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fagundes Varela</t>
+          <t>Pinhal Grande</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1694,12 +1694,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>26/10/2020</t>
+          <t>28/08/2020</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>O-001.799/2020</t>
+          <t>R-001.607/2020</t>
         </is>
       </c>
     </row>
@@ -1711,27 +1711,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2020/011.303</t>
+          <t>2020/011.305</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Segredo</t>
+          <t>São Caetano do Moinho</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>VALE DO TURVO HIDRELÉTRICA LTDA</t>
+          <t>DELFES ENGENHARIA LTDA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ipê</t>
+          <t>Fagundes Varela</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1741,12 +1741,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>29/07/2020</t>
+          <t>26/10/2020</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>R-001.739/2020</t>
+          <t>O-001.799/2020</t>
         </is>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2020/010.833</t>
+          <t>2020/011.303</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Lixiguana</t>
+          <t>Segredo</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Muitos Capões</t>
+          <t>Ipê</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1788,12 +1788,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>29/07/2020</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>R-001.538/2020</t>
+          <t>R-001.739/2020</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2020/010.778</t>
+          <t>2020/010.833</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Barra do Ituim</t>
+          <t>Lixiguana</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>André da Rocha</t>
+          <t>Muitos Capões</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1835,12 +1835,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>21/07/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>R-001.678/2020</t>
+          <t>R-001.538/2020</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2020/010.683</t>
+          <t>2020/010.778</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fazenda Velha</t>
+          <t>Barra do Ituim</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1882,12 +1882,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>21/07/2020</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>R-001.539/2020</t>
+          <t>R-001.678/2020</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2020/010.620</t>
+          <t>2020/010.683</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Bugres</t>
+          <t>Fazenda Velha</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Companhia Estadual de Geração e Transmissão de Energia Elétrica</t>
+          <t>VALE DO TURVO HIDRELÉTRICA LTDA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>São Francisco de Paula</t>
+          <t>André da Rocha</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Aguardando alterações de dados inconsistentes</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>03/11/2020</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R-001.539/2020</t>
         </is>
       </c>
     </row>
@@ -1946,27 +1946,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2020/010.278</t>
+          <t>2020/010.620</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Pivoto</t>
+          <t>Bugres</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CLÊNIO ANTÔNIO PIVOTO</t>
+          <t>Companhia Estadual de Geração e Transmissão de Energia Elétrica</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>São Francisco de Assis</t>
+          <t>São Francisco de Paula</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>22/06/2020</t>
+          <t>03/11/2020</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2020/009.773</t>
+          <t>2020/010.278</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2003,32 +2003,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Igrejinha</t>
+          <t>Pivoto</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>BOA VISTA DO CADEADO ENERGIA LTDA.</t>
+          <t>CLÊNIO ANTÔNIO PIVOTO</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Boa Vista do Cadeado</t>
+          <t>São Francisco de Assis</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Aguardando alterações de dados inconsistentes</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>21/07/2020</t>
+          <t>22/06/2020</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>O-001.394/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2020/009.716</t>
+          <t>2020/009.773</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2050,17 +2050,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Guabiju II</t>
+          <t>Igrejinha</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>AÇO METAIS FRAIBURGO LTDA</t>
+          <t>BOA VISTA DO CADEADO ENERGIA LTDA.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Esmeralda</t>
+          <t>Boa Vista do Cadeado</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2070,12 +2070,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11/06/2020</t>
+          <t>21/07/2020</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>R-001.236/2020</t>
+          <t>O-001.394/2020</t>
         </is>
       </c>
     </row>
@@ -2087,27 +2087,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2020/008.760</t>
+          <t>2020/009.716</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sede II</t>
+          <t>Guabiju II</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>IJUI CENTENARIA GERACAO SPE LTDA</t>
+          <t>AÇO METAIS FRAIBURGO LTDA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ijuí</t>
+          <t>Esmeralda</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>02/06/2020</t>
+          <t>11/06/2020</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>O-001.056/2020</t>
+          <t>R-001.236/2020</t>
         </is>
       </c>
     </row>
@@ -2134,27 +2134,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2020/007.726</t>
+          <t>2020/008.760</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Guabiju I</t>
+          <t>Sede II</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AÇO METAIS FRAIBURGO LTDA</t>
+          <t>IJUI CENTENARIA GERACAO SPE LTDA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Esmeralda</t>
+          <t>Ijuí</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2164,12 +2164,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>29/05/2020</t>
+          <t>02/06/2020</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>R-001.106/2020</t>
+          <t>O-001.056/2020</t>
         </is>
       </c>
     </row>
@@ -2181,27 +2181,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2020/007.390</t>
+          <t>2020/007.726</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cotovelo do Jacuí</t>
+          <t>Guabiju I</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>COPREL Cooperativa de Geração de Energia e Desenvolvimento</t>
+          <t>AÇO METAIS FRAIBURGO LTDA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Victor Graeff</t>
+          <t>Esmeralda</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2211,12 +2211,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>29/05/2020</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>O-001.051/2020</t>
+          <t>R-001.106/2020</t>
         </is>
       </c>
     </row>
@@ -2228,42 +2228,42 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2020/006.741</t>
+          <t>2020/007.390</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Glória</t>
+          <t>Cotovelo do Jacuí</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CONSTRUNÍVEL ENERGIAS RENOVÁVEIS LTDA</t>
+          <t>COPREL Cooperativa de Geração de Energia e Desenvolvimento</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Pinhal da Serra</t>
+          <t>Victor Graeff</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>22/06/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>O-001.051/2020</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2020/006.277</t>
+          <t>2020/006.741</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2285,27 +2285,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Quevedos</t>
+          <t>Glória</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Fernando Isoton</t>
+          <t>CONSTRUNÍVEL ENERGIAS RENOVÁVEIS LTDA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Quevedos</t>
+          <t>Pinhal da Serra</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Aguardando alterações de dados inconsistentes</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>12/11/2020</t>
+          <t>22/06/2020</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2322,42 +2322,42 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2020/005.099</t>
+          <t>2020/006.277</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Ferradura</t>
+          <t>Quevedos</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>BT GERADORA DE ENERGIA ELETRICA S.A.</t>
+          <t>Fernando Isoton</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Erval Seco</t>
+          <t>Quevedos</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Aguardando alterações de dados inconsistentes</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>24/04/2020</t>
+          <t>12/11/2020</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>O-000.870/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2369,27 +2369,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2020/002.905</t>
+          <t>2020/005.099</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>São Marcos</t>
+          <t>Ferradura</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>HDE 01 PARTICIPACOES SOCIETARIAS EIRELI</t>
+          <t>BT GERADORA DE ENERGIA ELETRICA S.A.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Caxias do Sul</t>
+          <t>Erval Seco</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>06/10/2020</t>
+          <t>24/04/2020</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>R-001.738/2020</t>
+          <t>O-000.870/2020</t>
         </is>
       </c>
     </row>
@@ -2416,27 +2416,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2020/002.866</t>
+          <t>2020/002.905</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Linha Onze Oeste</t>
+          <t>São Marcos</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>LINHA ONZE OESTE ENERGIA LTDA</t>
+          <t>HDE 01 PARTICIPACOES SOCIETARIAS EIRELI</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Coronel Barros</t>
+          <t>Caxias do Sul</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2446,12 +2446,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>O-001.845/2020</t>
+          <t>R-001.738/2020</t>
         </is>
       </c>
     </row>
@@ -2463,27 +2463,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2020/001.754</t>
+          <t>2020/002.866</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Três Marias</t>
+          <t>Linha Onze Oeste</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BORTOLON AGROCOMERCIAL EIRELI</t>
+          <t>LINHA ONZE OESTE ENERGIA LTDA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vacaria</t>
+          <t>Coronel Barros</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2493,12 +2493,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>11/05/2020</t>
+          <t>09/11/2020</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>O-000.956/2020</t>
+          <t>O-001.845/2020</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2020/001.523</t>
+          <t>2020/001.754</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2520,17 +2520,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Três Marias</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ENERBIO SERVICOS DE ENGENHARIA LTDA</t>
+          <t>BORTOLON AGROCOMERCIAL EIRELI</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Erval Seco</t>
+          <t>Vacaria</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2540,12 +2540,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>09/04/2020</t>
+          <t>11/05/2020</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>R-000.836/2020</t>
+          <t>O-000.956/2020</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2020/000.536</t>
+          <t>2020/001.523</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2567,17 +2567,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Suzana</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>USINA HIDRELETRICA SUZANA I LTDA</t>
+          <t>ENERBIO SERVICOS DE ENGENHARIA LTDA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Gaurama</t>
+          <t>Erval Seco</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2587,12 +2587,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>04/01/2021</t>
+          <t>09/04/2020</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>O-000.001/2021</t>
+          <t>R-000.836/2020</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2020/000.360</t>
+          <t>2020/000.536</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2614,17 +2614,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Buricá</t>
+          <t>Suzana</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE DESENVOLVIMENTO SOCIAL ENTRE RIOS LTDA.</t>
+          <t>USINA HIDRELETRICA SUZANA I LTDA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Inhacorá</t>
+          <t>Gaurama</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>02/03/2020</t>
+          <t>04/01/2021</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>O-001.790/2020</t>
+          <t>O-000.001/2021</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2019/025.605</t>
+          <t>2020/000.360</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2661,17 +2661,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>São Jorge</t>
+          <t>Buricá</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CONSTRUNÍVEL ENERGIAS RENOVÁVEIS LTDA</t>
+          <t>COOPERATIVA DE DESENVOLVIMENTO SOCIAL ENTRE RIOS LTDA.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Pinhal da Serra</t>
+          <t>Inhacorá</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>08/04/2020</t>
+          <t>02/03/2020</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>R-000.837/2020</t>
+          <t>O-001.790/2020</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2019/024.861</t>
+          <t>2019/025.605</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2708,12 +2708,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Bernardo José</t>
+          <t>São Jorge</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Bernardo José Geração de Energia Ltda</t>
+          <t>CONSTRUNÍVEL ENERGIAS RENOVÁVEIS LTDA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2728,12 +2728,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>19/06/2020</t>
+          <t>08/04/2020</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>R-001.333/2020</t>
+          <t>R-000.837/2020</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2019/023.469</t>
+          <t>2019/024.861</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2755,17 +2755,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>di Franco</t>
+          <t>Bernardo José</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ENERBIO SERVICOS DE ENGENHARIA LTDA</t>
+          <t>Bernardo José Geração de Energia Ltda</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>São Marcos</t>
+          <t>Pinhal da Serra</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>15/04/2020</t>
+          <t>19/06/2020</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>R-000.838/2020</t>
+          <t>R-001.333/2020</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2019/022.994</t>
+          <t>2019/023.469</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2802,17 +2802,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Santa Rita</t>
+          <t>di Franco</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ALS GERAÇÃO DE ENERGIA SPE LTDA</t>
+          <t>ENERBIO SERVICOS DE ENGENHARIA LTDA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>São Marcos</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>21/02/2020</t>
+          <t>15/04/2020</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>O-001.710/2020</t>
+          <t>R-000.838/2020</t>
         </is>
       </c>
     </row>
@@ -2839,42 +2839,42 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2019/022.169</t>
+          <t>2019/022.994</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Edelweiss</t>
+          <t>Santa Rita</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>GUARITA GERADORA DE ENERGIA LTDA</t>
+          <t>ALS GERAÇÃO DE ENERGIA SPE LTDA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Erval Seco</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Aguardando alterações de dados inconsistentes</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>14/10/2020</t>
+          <t>21/02/2020</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>O-001.710/2020</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2019/021.472</t>
+          <t>2019/022.169</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2896,32 +2896,32 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Coronel Barros</t>
+          <t>Edelweiss</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cooperativa de Geração de Energia e Desenvolvimento Social LTDA</t>
+          <t>GUARITA GERADORA DE ENERGIA LTDA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Coronel Barros</t>
+          <t>Erval Seco</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Aguardando alterações de dados inconsistentes</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>12/06/2020</t>
+          <t>14/10/2020</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>R-001.142/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2019/021.085</t>
+          <t>2019/021.472</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,32 +2943,32 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Primavera do Rio Turvo</t>
+          <t>Coronel Barros</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Hidrotermica s/a.</t>
+          <t>Cooperativa de Geração de Energia e Desenvolvimento Social LTDA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Protásio Alves</t>
+          <t>Coronel Barros</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Aguardando alterações de dados inconsistentes</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>04/12/2020</t>
+          <t>12/06/2020</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R-001.142/2020</t>
         </is>
       </c>
     </row>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2019/020.046</t>
+          <t>2019/021.085</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2990,32 +2990,32 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Forquilha II</t>
+          <t>Primavera do Rio Turvo</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Vertente Engenharia Ltda</t>
+          <t>Hidrotermica s/a.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Maximiliano de Almeida</t>
+          <t>Protásio Alves</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Aguardando alterações de dados inconsistentes</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>14/04/2020</t>
+          <t>04/12/2020</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>R-000.839/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3027,27 +3027,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2019/014.749</t>
+          <t>2019/020.046</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Pedras Brancas 01</t>
+          <t>Forquilha II</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Aecogeo Soluções Ambientais Ltda</t>
+          <t>Vertente Engenharia Ltda</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Campestre da Serra</t>
+          <t>Maximiliano de Almeida</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3057,12 +3057,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>08/01/2020</t>
+          <t>14/04/2020</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>R-000.523/2020</t>
+          <t>R-000.839/2020</t>
         </is>
       </c>
     </row>
@@ -3074,42 +3074,42 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2019/013.226</t>
+          <t>2019/014.749</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Ijuizinho</t>
+          <t>Pedras Brancas 01</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE DISTRIBUICAO E GERACAO DE ENERGIA DAS MISSOES</t>
+          <t>Aecogeo Soluções Ambientais Ltda</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Entre-Ijuís</t>
+          <t>Campestre da Serra</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Aguardando alterações de dados inconsistentes</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>08/01/2020</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R-000.523/2020</t>
         </is>
       </c>
     </row>
@@ -3121,42 +3121,42 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2019/009.268</t>
+          <t>2019/013.226</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Bruna</t>
+          <t>Ijuizinho</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>RIO DO FRADE GERAÇÃO DE ENERGIA LTDA</t>
+          <t>COOPERATIVA DE DISTRIBUICAO E GERACAO DE ENERGIA DAS MISSOES</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Esmeralda</t>
+          <t>Entre-Ijuís</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Aguardando alterações de dados inconsistentes</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>20/04/2020</t>
+          <t>09/11/2020</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>O-000.840/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2019/008.795</t>
+          <t>2019/009.268</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3178,17 +3178,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Lorenz</t>
+          <t>Bruna</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>LORENZ &amp; FILHOS LTDA - EPP</t>
+          <t>RIO DO FRADE GERAÇÃO DE ENERGIA LTDA</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Humaitá</t>
+          <t>Esmeralda</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3198,12 +3198,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>16/03/2020</t>
+          <t>20/04/2020</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>O-000.675/2020</t>
+          <t>O-000.840/2020</t>
         </is>
       </c>
     </row>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2019/008.576</t>
+          <t>2019/008.795</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3225,32 +3225,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Ligeirinho</t>
+          <t>Lorenz</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ESB ENGENHARIA LTDA</t>
+          <t>LORENZ &amp; FILHOS LTDA - EPP</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sananduva</t>
+          <t>Humaitá</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>16/05/2019</t>
+          <t>16/03/2020</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>O-000.675/2020</t>
         </is>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2019/008.343</t>
+          <t>2019/008.576</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3272,32 +3272,32 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Despraiado</t>
+          <t>Ligeirinho</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>X-6 Geração de Energia Eireli</t>
+          <t>ESB ENGENHARIA LTDA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vacaria</t>
+          <t>Sananduva</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>02/03/2020</t>
+          <t>16/05/2019</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>O-000.644/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2019/006.177</t>
+          <t>2019/008.343</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,32 +3319,32 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Pedras Brancas</t>
+          <t>Despraiado</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CERFOX  COOPERATIVA DE GERAÇÃO E DESENVOLVIMENTO FONTOURA XAVIER</t>
+          <t>X-6 Geração de Energia Eireli</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Arvorezinha</t>
+          <t>Vacaria</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Aguardando alterações de dados inconsistentes</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>03/11/2020</t>
+          <t>02/03/2020</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>O-000.644/2020</t>
         </is>
       </c>
     </row>
@@ -3356,42 +3356,42 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2019/005.166</t>
+          <t>2019/006.177</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Silveira II</t>
+          <t>Pedras Brancas</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SILVEIRA II ENERGÉTICA S.A.</t>
+          <t>CERFOX  COOPERATIVA DE GERAÇÃO E DESENVOLVIMENTO FONTOURA XAVIER</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>São José dos Ausentes</t>
+          <t>Arvorezinha</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Aguardando alterações de dados inconsistentes</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>14/12/2020</t>
+          <t>03/11/2020</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>O-001.977/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3403,27 +3403,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2019/005.157</t>
+          <t>2019/005.166</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Touros V</t>
+          <t>Silveira II</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>TOUROS V ENERGÉTICA S.A.</t>
+          <t>SILVEIRA II ENERGÉTICA S.A.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bom Jesus</t>
+          <t>São José dos Ausentes</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>18/08/2020</t>
+          <t>14/12/2020</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>O-001.537/2020</t>
+          <t>O-001.977/2020</t>
         </is>
       </c>
     </row>
@@ -3450,22 +3450,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2019/005.142</t>
+          <t>2019/005.157</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Touros IV</t>
+          <t>Touros V</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TOUROS IV ENERGÉTICA S.A.</t>
+          <t>TOUROS V ENERGÉTICA S.A.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3480,12 +3480,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>20/04/2020</t>
+          <t>18/08/2020</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>O-000.841/2020</t>
+          <t>O-001.537/2020</t>
         </is>
       </c>
     </row>
@@ -3497,27 +3497,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2019/004.975</t>
+          <t>2019/005.142</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Palomas</t>
+          <t>Touros IV</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>PALOMA ENERGIA LTDA</t>
+          <t>TOUROS IV ENERGÉTICA S.A.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Barra do Rio Azul</t>
+          <t>Bom Jesus</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3527,12 +3527,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>20/04/2020</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>O-001.846/2020</t>
+          <t>O-000.841/2020</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2019/004.961</t>
+          <t>2019/004.975</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,32 +3554,32 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Vanassi</t>
+          <t>Palomas</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>APS Construções EIRELI</t>
+          <t>PALOMA ENERGIA LTDA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Caxias do Sul</t>
+          <t>Barra do Rio Azul</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>26/06/2020</t>
+          <t>09/11/2020</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>O-001.846/2020</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2019/004.535</t>
+          <t>2019/004.961</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3601,32 +3601,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>São Miguel II</t>
+          <t>Vanassi</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>GERALUZ SERVIÇOS DE ENGENHARIA LTDA.</t>
+          <t>APS Construções EIRELI</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Nova Prata</t>
+          <t>Caxias do Sul</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>04/02/2020</t>
+          <t>26/06/2020</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>R-000.868/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3638,27 +3638,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2019/004.299</t>
+          <t>2019/004.535</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Duque de Caxias</t>
+          <t>São Miguel II</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MINOZZO PARTICIPAÇÕES LTDA</t>
+          <t>GERALUZ SERVIÇOS DE ENGENHARIA LTDA.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vila Flores</t>
+          <t>Nova Prata</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>29/04/2020</t>
+          <t>04/02/2020</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>R-000.898/2020</t>
+          <t>R-000.868/2020</t>
         </is>
       </c>
     </row>
@@ -3685,27 +3685,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2019/003.691</t>
+          <t>2019/004.299</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Crissiumal</t>
+          <t>Duque de Caxias</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>M. H.N GERACAO ELETRICA LTDA</t>
+          <t>MINOZZO PARTICIPAÇÕES LTDA</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Crissiumal</t>
+          <t>Vila Flores</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3715,12 +3715,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>08/06/2020</t>
+          <t>29/04/2020</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>O-001.105/2020</t>
+          <t>R-000.898/2020</t>
         </is>
       </c>
     </row>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2019/003.312</t>
+          <t>2019/003.691</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3742,17 +3742,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Touros III</t>
+          <t>Crissiumal</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TOUROS III ENERGÉTICA S.A.</t>
+          <t>M. H.N GERACAO ELETRICA LTDA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bom Jesus</t>
+          <t>Crissiumal</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>18/08/2020</t>
+          <t>08/06/2020</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>O-001.535/2020</t>
+          <t>O-001.105/2020</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2019/003.240</t>
+          <t>2019/003.312</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3789,32 +3789,32 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Touros III</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ENERBIO SERVICOS DE ENGENHARIA LTDA</t>
+          <t>TOUROS III ENERGÉTICA S.A.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Taquaruçu do Sul</t>
+          <t>Bom Jesus</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>28/01/2020</t>
+          <t>18/08/2020</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>O-001.535/2020</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2019/002.931</t>
+          <t>2019/003.240</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3836,32 +3836,32 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Touros III</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TOUROS II ENERGÉTICA S.A.</t>
+          <t>ENERBIO SERVICOS DE ENGENHARIA LTDA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bom Jesus</t>
+          <t>Taquaruçu do Sul</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>18/08/2020</t>
+          <t>28/01/2020</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>O-001.536/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3873,22 +3873,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2019/001.898</t>
+          <t>2019/002.931</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Cerquinha II</t>
+          <t>Touros III</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CERQUINHA II ENERGÉTICA S.A.</t>
+          <t>TOUROS II ENERGÉTICA S.A.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3903,12 +3903,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>13/12/2019</t>
+          <t>18/08/2020</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>O-000.464/2019</t>
+          <t>O-001.536/2020</t>
         </is>
       </c>
     </row>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2019/001.476</t>
+          <t>2019/001.898</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3930,32 +3930,32 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Silveira II</t>
+          <t>Cerquinha II</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SILVEIRA III ENERGÉTICA S.A.</t>
+          <t>CERQUINHA II ENERGÉTICA S.A.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>São José dos Ausentes</t>
+          <t>Bom Jesus</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>06/02/2019</t>
+          <t>13/12/2019</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>O-000.464/2019</t>
         </is>
       </c>
     </row>
@@ -3967,42 +3967,42 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2019/001.316</t>
+          <t>2019/001.476</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Serrinha II</t>
+          <t>Silveira II</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>OLFAR S/A ALIMENTO E ENERGIA</t>
+          <t>SILVEIRA III ENERGÉTICA S.A.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Protásio Alves</t>
+          <t>São José dos Ausentes</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>16/04/2020</t>
+          <t>06/02/2019</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>R-000.897/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4014,27 +4014,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2019/001.159</t>
+          <t>2019/001.316</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Vinhedos</t>
+          <t>Serrinha II</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Enel Brasil S.A</t>
+          <t>OLFAR S/A ALIMENTO E ENERGIA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Fagundes Varela</t>
+          <t>Protásio Alves</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4044,12 +4044,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>05/11/2020</t>
+          <t>16/04/2020</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>R-001.887/2020</t>
+          <t>R-000.897/2020</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2019/001.003</t>
+          <t>2019/001.159</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4071,32 +4071,32 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Rio Ijuizinho</t>
+          <t>Vinhedos</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE DISTRIBUICAO E GERACAO DE ENERGIA DAS MISSOES</t>
+          <t>Enel Brasil S.A</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Entre-Ijuís</t>
+          <t>Fagundes Varela</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>07/02/2019</t>
+          <t>05/11/2020</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R-001.887/2020</t>
         </is>
       </c>
     </row>
@@ -4108,27 +4108,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2019/000.653</t>
+          <t>2019/001.003</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Foz do Cará</t>
+          <t>Rio Ijuizinho</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>APS Construções EIRELI</t>
+          <t>COOPERATIVA DE DISTRIBUICAO E GERACAO DE ENERGIA DAS MISSOES</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Caxias do Sul</t>
+          <t>Entre-Ijuís</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4138,7 +4138,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>12/08/2020</t>
+          <t>07/02/2019</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4155,42 +4155,42 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2019/000.170</t>
+          <t>2019/000.653</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Silveira III</t>
+          <t>Foz do Cará</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SILVEIRA III ENERGÉTICA S.A.</t>
+          <t>APS Construções EIRELI</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>São José dos Ausentes</t>
+          <t>Caxias do Sul</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>10/08/2020</t>
+          <t>12/08/2020</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>O-001.497/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2018/034.982</t>
+          <t>2019/000.170</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4212,17 +4212,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Vale do Leite</t>
+          <t>Silveira III</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Certel Vale do Leite Geração de Energia S/A</t>
+          <t>SILVEIRA III ENERGÉTICA S.A.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Pouso Novo</t>
+          <t>São José dos Ausentes</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>14/02/2020</t>
+          <t>10/08/2020</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>R-000.594/2020</t>
+          <t>O-001.497/2020</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2018/034.955</t>
+          <t>2018/034.982</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4259,17 +4259,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>São Valentim</t>
+          <t>Vale do Leite</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Enel Brasil S.A</t>
+          <t>Certel Vale do Leite Geração de Energia S/A</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>São Valentim do Sul</t>
+          <t>Pouso Novo</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4279,12 +4279,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>09/09/2020</t>
+          <t>14/02/2020</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>R-001.687/2020</t>
+          <t>R-000.594/2020</t>
         </is>
       </c>
     </row>
@@ -4296,27 +4296,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2018/034.380</t>
+          <t>2018/034.955</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Mariano</t>
+          <t>São Valentim</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MARIANO GERAÇÃO DE ENERGIA</t>
+          <t>Enel Brasil S.A</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Machadinho</t>
+          <t>São Valentim do Sul</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4326,12 +4326,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>03/11/2020</t>
+          <t>09/09/2020</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>R-001.836/2020</t>
+          <t>R-001.687/2020</t>
         </is>
       </c>
     </row>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2018/033.655</t>
+          <t>2018/034.380</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4353,17 +4353,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Governador</t>
+          <t>Mariano</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Pablo Rodrigo Ferreira Romeiro</t>
+          <t>MARIANO GERAÇÃO DE ENERGIA</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Monte Alegre dos Campos</t>
+          <t>Machadinho</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4373,12 +4373,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>14/04/2020</t>
+          <t>03/11/2020</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>R-000.842/2020</t>
+          <t>R-001.836/2020</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2018/033.376</t>
+          <t>2018/033.655</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4400,17 +4400,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Caxambu</t>
+          <t>Governador</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Agropecuaria Fockink Ltda</t>
+          <t>Pablo Rodrigo Ferreira Romeiro</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Panambi</t>
+          <t>Monte Alegre dos Campos</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4420,12 +4420,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
+          <t>14/04/2020</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>O-001.742/2020</t>
+          <t>R-000.842/2020</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2018/033.220</t>
+          <t>2018/033.376</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4447,32 +4447,32 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Linha Curuçu</t>
+          <t>Caxambu</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Trópico Energia Renovável LTDA</t>
+          <t>Agropecuaria Fockink Ltda</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Soledade</t>
+          <t>Panambi</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>12/02/2019</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>O-001.742/2020</t>
         </is>
       </c>
     </row>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2018/032.593</t>
+          <t>2018/033.220</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4494,32 +4494,32 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Padre Polo</t>
+          <t>Linha Curuçu</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>USINA PADRE POLO LTDA - ME</t>
+          <t>Trópico Energia Renovável LTDA</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Jacutinga</t>
+          <t>Soledade</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>09/11/2020</t>
+          <t>12/02/2019</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>O-001.844/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2018/032.067</t>
+          <t>2018/032.593</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4541,17 +4541,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Formigueiro</t>
+          <t>Padre Polo</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SCHIRMER &amp; CORREA CONSULTORIA FLORESTAL LTDA</t>
+          <t>USINA PADRE POLO LTDA - ME</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Boa Vista do Cadeado</t>
+          <t>Jacutinga</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>04/03/2020</t>
+          <t>09/11/2020</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>O-000.647/2020</t>
+          <t>O-001.844/2020</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2018/031.725</t>
+          <t>2018/032.067</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4588,17 +4588,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Capivari II</t>
+          <t>Formigueiro</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>JCS Engenharia, Consultoria e Participações EIRELLI - EPP</t>
+          <t>SCHIRMER &amp; CORREA CONSULTORIA FLORESTAL LTDA</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Dom Feliciano</t>
+          <t>Boa Vista do Cadeado</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4608,12 +4608,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>12/03/2020</t>
+          <t>04/03/2020</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>R-001.102/2020</t>
+          <t>O-000.647/2020</t>
         </is>
       </c>
     </row>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2018/031.548</t>
+          <t>2018/031.725</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4635,17 +4635,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Daltro Filho</t>
+          <t>Capivari II</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SPE DALTRO FILHO GERAÇÃO DE ENERGIA LTDA</t>
+          <t>JCS Engenharia, Consultoria e Participações EIRELLI - EPP</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Imigrante</t>
+          <t>Dom Feliciano</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4655,12 +4655,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>06/10/2020</t>
+          <t>12/03/2020</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>O-001.713/2020</t>
+          <t>R-001.102/2020</t>
         </is>
       </c>
     </row>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2018/031.421</t>
+          <t>2018/031.548</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4682,17 +4682,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Capivari II</t>
+          <t>Daltro Filho</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>JCS Engenharia, Consultoria e Participações EIRELLI - EPP</t>
+          <t>SPE DALTRO FILHO GERAÇÃO DE ENERGIA LTDA</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Dom Feliciano</t>
+          <t>Imigrante</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4702,12 +4702,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>12/03/2020</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>R-001.103/2020</t>
+          <t>O-001.713/2020</t>
         </is>
       </c>
     </row>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2018/031.022</t>
+          <t>2018/031.421</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4729,17 +4729,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Capivara Baixa</t>
+          <t>Capivari II</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>PARTIALIS COMERCIO E GERAÇÃO DE ENERGIA S/A</t>
+          <t>JCS Engenharia, Consultoria e Participações EIRELLI - EPP</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Erval Seco</t>
+          <t>Dom Feliciano</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4749,12 +4749,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>16/07/2020</t>
+          <t>12/03/2020</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>R-001.423/2020</t>
+          <t>R-001.103/2020</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2018/027.635</t>
+          <t>2018/031.022</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4776,32 +4776,32 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Otto I</t>
+          <t>Capivara Baixa</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ENERGETICA OTTO LTDA</t>
+          <t>PARTIALIS COMERCIO E GERAÇÃO DE ENERGIA S/A</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Alpestre</t>
+          <t>Erval Seco</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>28/11/2018</t>
+          <t>16/07/2020</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R-001.423/2020</t>
         </is>
       </c>
     </row>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2018/027.627</t>
+          <t>2018/027.635</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Otto II</t>
+          <t>Otto I</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>20/09/2018</t>
+          <t>28/11/2018</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4860,37 +4860,37 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2018/027.596</t>
+          <t>2018/027.627</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Ijuzinho</t>
+          <t>Otto II</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Companhia Estadual de Geração e Transmissão de Energia Elétrica</t>
+          <t>ENERGETICA OTTO LTDA</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Eugênio de Castro</t>
+          <t>Alpestre</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Aguardando alterações de dados inconsistentes</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>25/09/2020</t>
+          <t>20/09/2018</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4907,42 +4907,42 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2018/025.979</t>
+          <t>2018/027.596</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Recanto</t>
+          <t>Ijuzinho</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Vertente Engenharia Ltda</t>
+          <t>Companhia Estadual de Geração e Transmissão de Energia Elétrica</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ipê</t>
+          <t>Eugênio de Castro</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Aguardando alterações de dados inconsistentes</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>16/01/2020</t>
+          <t>11/01/2021</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>R-000.643/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2018/025.491</t>
+          <t>2018/025.979</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Invernada</t>
+          <t>Recanto</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Campestre da Serra</t>
+          <t>Ipê</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4984,12 +4984,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>11/12/2018</t>
+          <t>16/01/2020</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>R-000.116/2018</t>
+          <t>R-000.643/2020</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2018/023.145</t>
+          <t>2018/025.491</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5011,17 +5011,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>das Cabras</t>
+          <t>Invernada</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CABRAS GERADORA DE ENERGIA ELÉTRICA LTDA</t>
+          <t>Vertente Engenharia Ltda</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Erval Seco</t>
+          <t>Campestre da Serra</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -5031,12 +5031,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>16/08/2019</t>
+          <t>11/12/2018</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>O-000.298/2019</t>
+          <t>R-000.116/2018</t>
         </is>
       </c>
     </row>
@@ -5048,42 +5048,42 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2018/022.736</t>
+          <t>2018/023.145</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>UHE</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Passo Fundo</t>
+          <t>das Cabras</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ENGIE BRASIL ENERGIA S.A.</t>
+          <t>CABRAS GERADORA DE ENERGIA ELÉTRICA LTDA</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Entre Rios do Sul</t>
+          <t>Erval Seco</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>04/04/2019</t>
+          <t>16/08/2019</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>O-000.298/2019</t>
         </is>
       </c>
     </row>
@@ -5095,42 +5095,42 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2018/020.674</t>
+          <t>2018/022.736</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>UHE</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Focchezan</t>
+          <t>Passo Fundo</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Focchezan Energia Ltda</t>
+          <t>ENGIE BRASIL ENERGIA S.A.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Nova Bassano</t>
+          <t>Entre Rios do Sul</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>15/06/2020</t>
+          <t>04/04/2019</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>O-001.143/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5142,42 +5142,42 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2018/014.719</t>
+          <t>2018/020.674</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Serra dos Cavalinhos I</t>
+          <t>Focchezan</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SERRA DOS CAVALINHOS I ENERGETICA SA</t>
+          <t>Focchezan Energia Ltda</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Monte Alegre dos Campos</t>
+          <t>Nova Bassano</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>17/11/2020</t>
+          <t>15/06/2020</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>O-001.143/2020</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2018/014.695</t>
+          <t>2018/014.719</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Pezzi</t>
+          <t>Serra dos Cavalinhos I</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>PEZZI ENERGETICA SA</t>
+          <t>SERRA DOS CAVALINHOS I ENERGETICA SA</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Bom Jesus</t>
+          <t>Monte Alegre dos Campos</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>16/11/2020</t>
+          <t>17/11/2020</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2018/014.640</t>
+          <t>2018/014.695</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5246,17 +5246,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Serra dos Cavalinhos II</t>
+          <t>Pezzi</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SERRA DOS CAVALINHOS II ENERGETICA SA</t>
+          <t>PEZZI ENERGETICA SA</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Monte Alegre dos Campos</t>
+          <t>Bom Jesus</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2018/012.969</t>
+          <t>2018/014.640</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5293,17 +5293,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Cotiporã</t>
+          <t>Serra dos Cavalinhos II</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>COTIPORÃ ENERGÉTICA SA</t>
+          <t>SERRA DOS CAVALINHOS II ENERGETICA SA</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Cotiporã</t>
+          <t>Monte Alegre dos Campos</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2018/017.547</t>
+          <t>2018/012.969</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5340,17 +5340,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Coronel Barros</t>
+          <t>Cotiporã</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Cooperativa de Geração de Energia e Desenvolvimento Social LTDA</t>
+          <t>COTIPORÃ ENERGÉTICA SA</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Coronel Barros</t>
+          <t>Cotiporã</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>08/07/2019</t>
+          <t>16/11/2020</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5377,42 +5377,42 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2018/012.671</t>
+          <t>2018/017.547</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Pedra Branca</t>
+          <t>Coronel Barros</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>JCS Engenharia, Consultoria e Participações EIRELLI - EPP</t>
+          <t>Cooperativa de Geração de Energia e Desenvolvimento Social LTDA</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Campestre da Serra</t>
+          <t>Coronel Barros</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>19/03/2019</t>
+          <t>08/07/2019</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>O-000.598/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5424,42 +5424,42 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2018/012.255</t>
+          <t>2018/012.671</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Caçador</t>
+          <t>Pedra Branca</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>CAÇADOR ENERGÉTICA SA</t>
+          <t>JCS Engenharia, Consultoria e Participações EIRELLI - EPP</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Serafina Corrêa</t>
+          <t>Campestre da Serra</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>16/11/2020</t>
+          <t>19/03/2019</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>O-000.598/2020</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2018/011.438</t>
+          <t>2018/012.255</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5481,32 +5481,32 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Saltinho</t>
+          <t>Caçador</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>SALTINHO ENERGÉTICA S/A</t>
+          <t>CAÇADOR ENERGÉTICA SA</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Ipê</t>
+          <t>Serafina Corrêa</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>16/11/2020</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>R-000.207/2019</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5518,42 +5518,42 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2018/010.895</t>
+          <t>2018/011.438</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Santa Rita</t>
+          <t>Saltinho</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ALS GERAÇÃO DE ENERGIA SPE LTDA</t>
+          <t>SALTINHO ENERGÉTICA S/A</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Ipê</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>11/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R-000.207/2019</t>
         </is>
       </c>
     </row>
@@ -5565,42 +5565,42 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2018/019.843</t>
+          <t>2018/010.895</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Chimarrão</t>
+          <t>Santa Rita</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CHIMARRÃO ENERGÉTICA S.A.</t>
+          <t>ALS GERAÇÃO DE ENERGIA SPE LTDA</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Muitos Capões</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>11/01/2019</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>O-001.888/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5612,7 +5612,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2018/005.528</t>
+          <t>2018/019.843</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5622,32 +5622,32 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Teste Amanda</t>
+          <t>Chimarrão</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Amanda Fadel</t>
+          <t>CHIMARRÃO ENERGÉTICA S.A.</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>André da Rocha</t>
+          <t>Muitos Capões</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>05/03/2018</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>O-001.888/2020</t>
         </is>
       </c>
     </row>
@@ -5659,27 +5659,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2018/003.531</t>
+          <t>2018/005.528</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Vanassi</t>
+          <t>Teste Amanda</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>APS Construções EIRELI</t>
+          <t>Amanda Fadel</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Caxias do Sul</t>
+          <t>André da Rocha</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>05/03/2018</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2018/003.530</t>
+          <t>2018/003.531</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Trator</t>
+          <t>Vanassi</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5731,17 +5731,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>13/12/2019</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>R-000.738/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2018/004.498</t>
+          <t>2018/003.530</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Carapai</t>
+          <t>Trator</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5778,17 +5778,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>08/07/2020</t>
+          <t>13/12/2019</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R-000.738/2020</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2017/040.172</t>
+          <t>2018/004.498</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5810,32 +5810,32 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Ligeiro</t>
+          <t>Carapai</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ENERGÉTICA RIO LIGEIRO LTDA</t>
+          <t>APS Construções EIRELI</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Santa Cecília do Sul</t>
+          <t>Caxias do Sul</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>08/07/2020</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>O-001.050/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2018/004.496</t>
+          <t>2017/040.172</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5857,32 +5857,32 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Pé</t>
+          <t>Ligeiro</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>APS Construções EIRELI</t>
+          <t>ENERGÉTICA RIO LIGEIRO LTDA</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Caxias do Sul</t>
+          <t>Santa Cecília do Sul</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>17/12/2019</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>O-001.050/2020</t>
         </is>
       </c>
     </row>
@@ -5894,7 +5894,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2018/004.495</t>
+          <t>2018/004.496</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Caravaggio</t>
+          <t>Pé</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>26/06/2020</t>
+          <t>17/12/2019</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2017/030.562</t>
+          <t>2018/004.495</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5951,17 +5951,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Pedras Brancas 01</t>
+          <t>Caravaggio</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Aecogeo Soluções Ambientais Ltda</t>
+          <t>APS Construções EIRELI</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Campestre da Serra</t>
+          <t>Caxias do Sul</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>26/03/2019</t>
+          <t>26/06/2020</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2017/030.507</t>
+          <t>2017/030.562</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Vieira II</t>
+          <t>Pedras Brancas 01</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6008,22 +6008,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Ipê</t>
+          <t>Campestre da Serra</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>15/04/2020</t>
+          <t>26/03/2019</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>R-000.867/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2017/028.789</t>
+          <t>2017/030.507</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Tomé</t>
+          <t>Vieira II</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>São Francisco de Paula</t>
+          <t>Ipê</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -6065,12 +6065,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>06/02/2020</t>
+          <t>15/04/2020</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>R-000.741/2020</t>
+          <t>R-000.867/2020</t>
         </is>
       </c>
     </row>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2017/028.651</t>
+          <t>2017/028.789</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6092,32 +6092,32 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Arroio da Reserva</t>
+          <t>Tomé</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SAULO SALLES BEVILACQUA NETO</t>
+          <t>Aecogeo Soluções Ambientais Ltda</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Pinhal Grande</t>
+          <t>São Francisco de Paula</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>11/09/2018</t>
+          <t>06/02/2020</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>R-000.741/2020</t>
         </is>
       </c>
     </row>
@@ -6129,42 +6129,42 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2017/028.636</t>
+          <t>2017/028.651</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Forquilha IV Luciano Barancelli</t>
+          <t>Arroio da Reserva</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>CENTRAL GERADORA HIDRELÉTRICA FORQUILHA LTDA.</t>
+          <t>SAULO SALLES BEVILACQUA NETO</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Maximiliano de Almeida</t>
+          <t>Pinhal Grande</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>06/10/2020</t>
+          <t>11/09/2018</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>O-001.714/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6176,42 +6176,42 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2017/028.632</t>
+          <t>2017/028.636</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Buricá</t>
+          <t>Forquilha IV Luciano Barancelli</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>COOPERATIVA DE DESENVOLVIMENTO SOCIAL ENTRE RIOS LTDA.</t>
+          <t>CENTRAL GERADORA HIDRELÉTRICA FORQUILHA LTDA.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Inhacorá</t>
+          <t>Maximiliano de Almeida</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>05/09/2019</t>
+          <t>06/10/2020</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>O-001.714/2020</t>
         </is>
       </c>
     </row>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2017/026.926</t>
+          <t>2017/028.632</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6233,32 +6233,32 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Esteira</t>
+          <t>Buricá</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Aecogeo Soluções Ambientais Ltda</t>
+          <t>COOPERATIVA DE DESENVOLVIMENTO SOCIAL ENTRE RIOS LTDA.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Monte Alegre dos Campos</t>
+          <t>Inhacorá</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>06/05/2020</t>
+          <t>05/09/2019</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>R-001.146/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2017/026.651</t>
+          <t>2017/026.926</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Vieira 01</t>
+          <t>Esteira</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Ipê</t>
+          <t>Monte Alegre dos Campos</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -6300,12 +6300,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>06/05/2020</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>R-000.866/2020</t>
+          <t>R-001.146/2020</t>
         </is>
       </c>
     </row>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2017/011.290</t>
+          <t>2017/026.651</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6327,17 +6327,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Pozza I</t>
+          <t>Vieira 01</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ITASUL ENERGY GERAÇÃO DE ENERGIA LTDA</t>
+          <t>Aecogeo Soluções Ambientais Ltda</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Machadinho</t>
+          <t>Ipê</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -6347,12 +6347,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>31/08/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>O-001.609/2020</t>
+          <t>R-000.866/2020</t>
         </is>
       </c>
     </row>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2017/005.275</t>
+          <t>2017/011.290</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6374,17 +6374,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Mirim</t>
+          <t>Pozza I</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>CONQUISTA GERAÇÃO DE ENERGIA ELÉTRICA LTDA</t>
+          <t>ITASUL ENERGY GERAÇÃO DE ENERGIA LTDA</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Carazinho</t>
+          <t>Machadinho</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6394,12 +6394,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>11/05/2020</t>
+          <t>31/08/2020</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>O-000.957/2020</t>
+          <t>O-001.609/2020</t>
         </is>
       </c>
     </row>
@@ -6411,42 +6411,42 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2017/000.678</t>
+          <t>2017/005.275</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Sede II</t>
+          <t>Mirim</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>IJUI CENTENARIA GERACAO SPE LTDA</t>
+          <t>CONQUISTA GERAÇÃO DE ENERGIA ELÉTRICA LTDA</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Ijuí</t>
+          <t>Carazinho</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Indeferida</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>26/05/2020</t>
+          <t>11/05/2020</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>O-000.957/2020</t>
         </is>
       </c>
     </row>
@@ -6458,42 +6458,42 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2016/013.809</t>
+          <t>2017/000.678</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Sperotto</t>
+          <t>Sede II</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Hidroelétrica Sperotto Queda do Turvo Ltda</t>
+          <t>IJUI CENTENARIA GERACAO SPE LTDA</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Santo Augusto</t>
+          <t>Ijuí</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Concedida</t>
+          <t>Indeferida</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>21/07/2020</t>
+          <t>26/05/2020</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>O-001.392/2020</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2016/008.018</t>
+          <t>2016/013.809</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6515,32 +6515,32 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Gramado Xavier</t>
+          <t>Sperotto</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>TRES FRONTEIRAS GERAÇÃO DE ENERGIA</t>
+          <t>Hidroelétrica Sperotto Queda do Turvo Ltda</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Gramado Xavier</t>
+          <t>Santo Augusto</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Aguardando alterações de dados inconsistentes</t>
+          <t>Concedida</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>08/07/2020</t>
+          <t>21/07/2020</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>O-001.392/2020</t>
         </is>
       </c>
     </row>
@@ -6552,7 +6552,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2016/008.016</t>
+          <t>2016/008.018</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Gramado dos Francos</t>
+          <t>Gramado Xavier</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Barros Cassal</t>
+          <t>Gramado Xavier</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>08/12/2020</t>
+          <t>08/07/2020</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -6599,17 +6599,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2016/007.976</t>
+          <t>2016/008.016</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>PCH</t>
+          <t>CGH</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Foz do Biriba</t>
+          <t>Gramado dos Francos</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Passa Sete</t>
+          <t>Barros Cassal</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>07/07/2020</t>
+          <t>08/12/2020</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6646,7 +6646,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2016/007.970</t>
+          <t>2016/007.976</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Linha Carvalho</t>
+          <t>Foz do Biriba</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>08/12/2020</t>
+          <t>07/07/2020</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2016/007.963</t>
+          <t>2016/007.970</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Linha Pinhal</t>
+          <t>Linha Carvalho</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Lagoão</t>
+          <t>Passa Sete</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>07/07/2020</t>
+          <t>08/12/2020</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -6740,17 +6740,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2016/007.777</t>
+          <t>2016/007.963</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CGH</t>
+          <t>PCH</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Passo da Grama</t>
+          <t>Linha Pinhal</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6770,7 +6770,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>22/10/2020</t>
+          <t>07/07/2020</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2016/007.736</t>
+          <t>2016/007.777</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6797,19 +6797,19 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
+          <t>Passo da Grama</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>TRES FRONTEIRAS GERAÇÃO DE ENERGIA</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
           <t>Lagoão</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>TRES FRONTEIRAS GERAÇÃO DE ENERGIA</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sinimbu</t>
-        </is>
-      </c>
       <c r="G136" t="inlineStr">
         <is>
           <t>Aguardando alterações de dados inconsistentes</t>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>08/12/2020</t>
+          <t>22/10/2020</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -6834,40 +6834,87 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
+          <t>2016/007.736</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>CGH</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Lagoão</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>TRES FRONTEIRAS GERAÇÃO DE ENERGIA</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sinimbu</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Aguardando alterações de dados inconsistentes</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>08/12/2020</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
           <t>2016/007.957</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>PCH</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>Barra de ferro</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>TRES FRONTEIRAS GERAÇÃO DE ENERGIA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>Gramado Xavier</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>Aguardando alterações de dados inconsistentes</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>21/10/2020</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>-</t>
         </is>
